--- a/장례의전_WBS_분석.xlsx
+++ b/장례의전_WBS_분석.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="임직원" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="기업담당자" sheetId="2" r:id="rId3"/>
     <sheet name="협력업체" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="262">
   <si>
     <t>메뉴</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1900,6 +1900,10 @@
   &lt;input type=hidden name=controlNo&gt;
   &lt;input type=hidden name=payment&gt;
  &lt;/form&gt;      </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접수(장례현황)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2027,12 +2031,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2055,6 +2053,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2339,9 +2343,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A148" sqref="A148:XFD148"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2355,32 +2359,32 @@
     <col min="7" max="7" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="10"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1"/>
@@ -2388,23 +2392,23 @@
       <c r="D2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2412,26 +2416,26 @@
       <c r="D4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>195</v>
       </c>
       <c r="F6" t="s">
@@ -2439,10 +2443,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>196</v>
       </c>
       <c r="F7" t="s">
@@ -2450,21 +2454,21 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>197</v>
       </c>
       <c r="F9" t="s">
@@ -2472,10 +2476,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>198</v>
       </c>
       <c r="F10" t="s">
@@ -2483,10 +2487,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>199</v>
       </c>
       <c r="F11" t="s">
@@ -2494,7 +2498,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
@@ -2502,15 +2506,15 @@
       <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>200</v>
       </c>
       <c r="F13" t="s">
@@ -2518,10 +2522,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>201</v>
       </c>
       <c r="F14" t="s">
@@ -2529,10 +2533,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>202</v>
       </c>
       <c r="F15" t="s">
@@ -2540,7 +2544,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
@@ -2548,26 +2552,26 @@
       <c r="D16" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F18" t="s">
@@ -2575,10 +2579,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F19" t="s">
@@ -2586,10 +2590,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F20" t="s">
@@ -2597,10 +2601,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>205</v>
       </c>
       <c r="F21" t="s">
@@ -2608,10 +2612,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>206</v>
       </c>
       <c r="F22" t="s">
@@ -2619,13 +2623,13 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="10" t="s">
         <v>145</v>
       </c>
       <c r="G23" t="s">
@@ -2633,18 +2637,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="10" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
@@ -2652,15 +2656,15 @@
       <c r="D25" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="4" t="s">
         <v>209</v>
       </c>
       <c r="F26" t="s">
@@ -2668,10 +2672,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F27" t="s">
@@ -2679,10 +2683,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="4" t="s">
         <v>205</v>
       </c>
       <c r="F28" t="s">
@@ -2690,10 +2694,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>210</v>
       </c>
       <c r="F29" t="s">
@@ -2701,10 +2705,10 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="4" t="s">
         <v>210</v>
       </c>
       <c r="F30" t="s">
@@ -2712,10 +2716,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="4" t="s">
         <v>211</v>
       </c>
       <c r="F31" t="s">
@@ -2723,10 +2727,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="4" t="s">
         <v>225</v>
       </c>
       <c r="F32" t="s">
@@ -2734,10 +2738,10 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="4" t="s">
         <v>212</v>
       </c>
       <c r="F33" t="s">
@@ -2745,7 +2749,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="1" t="s">
         <v>51</v>
       </c>
@@ -2753,15 +2757,15 @@
       <c r="D34" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="4" t="s">
         <v>213</v>
       </c>
       <c r="F35" t="s">
@@ -2769,21 +2773,21 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="4" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="4" t="s">
         <v>255</v>
       </c>
       <c r="F37" t="s">
@@ -2791,18 +2795,18 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="4" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="1" t="s">
         <v>8</v>
       </c>
@@ -2810,26 +2814,26 @@
       <c r="D39" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="4" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="4" t="s">
         <v>155</v>
       </c>
       <c r="F41" t="s">
@@ -2837,7 +2841,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="249" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="1" t="s">
         <v>9</v>
       </c>
@@ -2845,7 +2849,7 @@
       <c r="D42" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="4" t="s">
         <v>156</v>
       </c>
       <c r="F42" t="s">
@@ -2853,13 +2857,13 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="249" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="4" t="s">
         <v>257</v>
       </c>
       <c r="F43" t="s">
@@ -2867,29 +2871,29 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="E44" s="6"/>
+      <c r="E44" s="4"/>
       <c r="F44" t="s">
         <v>157</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="12" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="E45" s="6"/>
+      <c r="E45" s="4"/>
       <c r="F45" t="s">
         <v>158</v>
       </c>
-      <c r="G45" s="4"/>
+      <c r="G45" s="12"/>
     </row>
     <row r="46" spans="1:7" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="1" t="s">
         <v>10</v>
       </c>
@@ -2897,7 +2901,7 @@
       <c r="D46" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="4" t="s">
         <v>159</v>
       </c>
       <c r="F46" t="s">
@@ -2905,13 +2909,13 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="4" t="s">
         <v>259</v>
       </c>
       <c r="F47" t="s">
@@ -2919,7 +2923,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="1" t="s">
         <v>11</v>
       </c>
@@ -2927,7 +2931,7 @@
       <c r="D48" t="s">
         <v>58</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="4" t="s">
         <v>160</v>
       </c>
       <c r="F48" t="s">
@@ -2941,7 +2945,7 @@
       <c r="D49" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="4" t="s">
         <v>260</v>
       </c>
       <c r="F49" t="s">
@@ -2949,19 +2953,19 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D50" t="s">
         <v>59</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="E51" s="6" t="s">
+      <c r="A51" s="12"/>
+      <c r="E51" s="4" t="s">
         <v>214</v>
       </c>
       <c r="F51" t="s">
@@ -2969,8 +2973,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="E52" s="6" t="s">
+      <c r="A52" s="12"/>
+      <c r="E52" s="4" t="s">
         <v>215</v>
       </c>
       <c r="F52" t="s">
@@ -2978,7 +2982,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="1" t="s">
         <v>60</v>
       </c>
@@ -2993,10 +2997,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="4" t="s">
         <v>216</v>
       </c>
       <c r="F54" t="s">
@@ -3004,10 +3008,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F55" t="s">
@@ -3015,10 +3019,10 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="4" t="s">
         <v>205</v>
       </c>
       <c r="F56" t="s">
@@ -3026,7 +3030,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
@@ -3041,10 +3045,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
+      <c r="A58" s="12"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F58" t="s">
@@ -3052,7 +3056,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="1" t="s">
         <v>49</v>
       </c>
@@ -3067,10 +3071,10 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="4" t="s">
         <v>217</v>
       </c>
       <c r="F60" t="s">
@@ -3078,7 +3082,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
+      <c r="A61" s="12"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="E61" t="s">
@@ -3089,10 +3093,10 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="4" t="s">
         <v>218</v>
       </c>
       <c r="F62" t="s">
@@ -3100,7 +3104,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="4"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="1" t="s">
         <v>6</v>
       </c>
@@ -3115,10 +3119,10 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="4"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F64" t="s">
@@ -3126,10 +3130,10 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A65" s="4"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F65" t="s">
@@ -3137,10 +3141,10 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="4"/>
+      <c r="A66" s="12"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="4" t="s">
         <v>205</v>
       </c>
       <c r="F66" t="s">
@@ -3148,10 +3152,10 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A67" s="4"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="4" t="s">
         <v>208</v>
       </c>
       <c r="F67" t="s">
@@ -3159,7 +3163,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="4"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="1" t="s">
         <v>51</v>
       </c>
@@ -3173,16 +3177,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="4"/>
+    <row r="69" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="12"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="F69" s="6" t="s">
+      <c r="F69" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="165" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="4"/>
+      <c r="A70" s="12"/>
       <c r="B70" s="1" t="s">
         <v>8</v>
       </c>
@@ -3192,7 +3196,7 @@
       <c r="D70" t="s">
         <v>66</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="4" t="s">
         <v>166</v>
       </c>
       <c r="F70" t="s">
@@ -3203,7 +3207,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4"/>
+      <c r="A71" s="12"/>
       <c r="B71" s="1" t="s">
         <v>9</v>
       </c>
@@ -3213,7 +3217,7 @@
       <c r="D71" t="s">
         <v>67</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="4" t="s">
         <v>168</v>
       </c>
       <c r="F71" t="s">
@@ -3221,10 +3225,10 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4"/>
+      <c r="A72" s="12"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="4" t="s">
         <v>219</v>
       </c>
       <c r="F72" t="s">
@@ -3232,10 +3236,10 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
+      <c r="A73" s="12"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="4" t="s">
         <v>215</v>
       </c>
       <c r="F73" t="s">
@@ -3243,7 +3247,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="206.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4"/>
+      <c r="A74" s="12"/>
       <c r="B74" s="1" t="s">
         <v>10</v>
       </c>
@@ -3253,7 +3257,7 @@
       <c r="D74" t="s">
         <v>68</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="4" t="s">
         <v>169</v>
       </c>
       <c r="F74" t="s">
@@ -3264,7 +3268,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="1" t="s">
         <v>11</v>
       </c>
@@ -3274,7 +3278,7 @@
       <c r="D75" t="s">
         <v>69</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="4" t="s">
         <v>170</v>
       </c>
       <c r="F75" t="s">
@@ -3282,10 +3286,10 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="4"/>
+      <c r="A76" s="12"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="4" t="s">
         <v>220</v>
       </c>
       <c r="F76" t="s">
@@ -3293,10 +3297,10 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="4"/>
+      <c r="A77" s="12"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="4" t="s">
         <v>215</v>
       </c>
       <c r="F77" t="s">
@@ -3304,7 +3308,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="4"/>
+      <c r="A78" s="12"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
         <v>71</v>
@@ -3317,13 +3321,13 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D79" t="s">
         <v>72</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F79" t="s">
@@ -3331,7 +3335,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="4"/>
+      <c r="A80" s="12"/>
       <c r="B80" s="1" t="s">
         <v>73</v>
       </c>
@@ -3341,12 +3345,12 @@
       <c r="D80" t="s">
         <v>83</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E80" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
+      <c r="A81" s="12"/>
       <c r="B81" s="1" t="s">
         <v>74</v>
       </c>
@@ -3356,15 +3360,15 @@
       <c r="D81" t="s">
         <v>84</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4"/>
+      <c r="A82" s="12"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="4" t="s">
         <v>174</v>
       </c>
       <c r="F82" t="s">
@@ -3372,10 +3376,10 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4"/>
+      <c r="A83" s="12"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F83" t="s">
@@ -3383,10 +3387,10 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A84" s="4"/>
+      <c r="A84" s="12"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="4" t="s">
         <v>221</v>
       </c>
       <c r="F84" t="s">
@@ -3394,21 +3398,21 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="4"/>
+      <c r="A85" s="12"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="E85" s="6" t="s">
+      <c r="E85" s="4" t="s">
         <v>201</v>
       </c>
       <c r="F85" t="s">
         <v>172</v>
       </c>
-      <c r="G85" s="6" t="s">
+      <c r="G85" s="4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="4"/>
+      <c r="A86" s="12"/>
       <c r="B86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3423,10 +3427,10 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="4"/>
+      <c r="A87" s="12"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="E87" s="6" t="s">
+      <c r="E87" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F87" t="s">
@@ -3434,10 +3438,10 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
+      <c r="A88" s="12"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="E88" s="6" t="s">
+      <c r="E88" s="4" t="s">
         <v>221</v>
       </c>
       <c r="F88" t="s">
@@ -3445,7 +3449,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="4"/>
+      <c r="A89" s="12"/>
       <c r="B89" s="1" t="s">
         <v>76</v>
       </c>
@@ -3460,10 +3464,10 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="135" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="4"/>
+      <c r="A90" s="12"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="4" t="s">
         <v>181</v>
       </c>
       <c r="F90" t="s">
@@ -3471,10 +3475,10 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A91" s="4"/>
+      <c r="A91" s="12"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="4" t="s">
         <v>210</v>
       </c>
       <c r="F91" t="s">
@@ -3485,10 +3489,10 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A92" s="4"/>
+      <c r="A92" s="12"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="4" t="s">
         <v>210</v>
       </c>
       <c r="F92" t="s">
@@ -3496,10 +3500,10 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A93" s="4"/>
+      <c r="A93" s="12"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="4" t="s">
         <v>211</v>
       </c>
       <c r="F93" t="s">
@@ -3507,10 +3511,10 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="4"/>
+      <c r="A94" s="12"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="E94" s="6" t="s">
+      <c r="E94" s="4" t="s">
         <v>223</v>
       </c>
       <c r="F94" t="s">
@@ -3518,10 +3522,10 @@
       </c>
     </row>
     <row r="95" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="4"/>
+      <c r="A95" s="12"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="4" t="s">
         <v>224</v>
       </c>
       <c r="F95" t="s">
@@ -3529,24 +3533,24 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="4"/>
+      <c r="A96" s="12"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="4" t="s">
         <v>226</v>
       </c>
       <c r="F96" t="s">
         <v>178</v>
       </c>
-      <c r="G96" s="6" t="s">
+      <c r="G96" s="4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="4"/>
+      <c r="A97" s="12"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="E97" s="6" t="s">
+      <c r="E97" s="4" t="s">
         <v>228</v>
       </c>
       <c r="F97" t="s">
@@ -3554,7 +3558,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="4"/>
+      <c r="A98" s="12"/>
       <c r="B98" s="1" t="s">
         <v>77</v>
       </c>
@@ -3569,10 +3573,10 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="4"/>
+      <c r="A99" s="12"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="E99" s="6" t="s">
+      <c r="E99" s="4" t="s">
         <v>229</v>
       </c>
       <c r="F99" t="s">
@@ -3580,7 +3584,7 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="4"/>
+      <c r="A100" s="12"/>
       <c r="B100" s="1" t="s">
         <v>78</v>
       </c>
@@ -3595,10 +3599,10 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4"/>
+      <c r="A101" s="12"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="4" t="s">
         <v>189</v>
       </c>
       <c r="F101" t="s">
@@ -3606,7 +3610,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="4"/>
+      <c r="A102" s="12"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="E102" t="s">
@@ -3617,10 +3621,10 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="4"/>
+      <c r="A103" s="12"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="E103" s="6" t="s">
+      <c r="E103" s="4" t="s">
         <v>230</v>
       </c>
       <c r="F103" t="s">
@@ -3628,33 +3632,33 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="4"/>
+      <c r="A104" s="12"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="E104" s="6" t="s">
+      <c r="E104" s="4" t="s">
         <v>231</v>
       </c>
       <c r="F104" t="s">
         <v>184</v>
       </c>
-      <c r="G104" s="6" t="s">
+      <c r="G104" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A105" s="4"/>
+      <c r="A105" s="12"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
-      <c r="E105" s="6" t="s">
+      <c r="E105" s="4" t="s">
         <v>231</v>
       </c>
       <c r="F105" t="s">
         <v>186</v>
       </c>
-      <c r="G105" s="6"/>
+      <c r="G105" s="4"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="4"/>
+      <c r="A106" s="12"/>
       <c r="B106" s="1" t="s">
         <v>79</v>
       </c>
@@ -3669,10 +3673,10 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="4"/>
+      <c r="A107" s="12"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
-      <c r="E107" s="6" t="s">
+      <c r="E107" s="4" t="s">
         <v>232</v>
       </c>
       <c r="F107" t="s">
@@ -3680,7 +3684,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="4"/>
+      <c r="A108" s="12"/>
       <c r="B108" s="1" t="s">
         <v>80</v>
       </c>
@@ -3695,10 +3699,10 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A109" s="4"/>
+      <c r="A109" s="12"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
-      <c r="E109" s="6" t="s">
+      <c r="E109" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F109" t="s">
@@ -3706,10 +3710,10 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="4"/>
+      <c r="A110" s="12"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
-      <c r="E110" s="6" t="s">
+      <c r="E110" s="4" t="s">
         <v>205</v>
       </c>
       <c r="F110" t="s">
@@ -3717,7 +3721,7 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="4"/>
+      <c r="A111" s="12"/>
       <c r="B111" s="1" t="s">
         <v>8</v>
       </c>
@@ -3727,7 +3731,7 @@
       <c r="D111" t="s">
         <v>91</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E111" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F111" t="s">
@@ -3738,7 +3742,7 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="4"/>
+      <c r="A112" s="12"/>
       <c r="B112" s="1" t="s">
         <v>9</v>
       </c>
@@ -3748,7 +3752,7 @@
       <c r="D112" t="s">
         <v>92</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E112" s="4" t="s">
         <v>192</v>
       </c>
       <c r="F112" t="s">
@@ -3756,10 +3760,10 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="4"/>
+      <c r="A113" s="12"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
-      <c r="E113" s="6" t="s">
+      <c r="E113" s="4" t="s">
         <v>220</v>
       </c>
       <c r="F113" t="s">
@@ -3767,10 +3771,10 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="4"/>
+      <c r="A114" s="12"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
-      <c r="E114" s="6" t="s">
+      <c r="E114" s="4" t="s">
         <v>215</v>
       </c>
       <c r="F114" t="s">
@@ -3778,7 +3782,7 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="153" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="4"/>
+      <c r="A115" s="12"/>
       <c r="B115" s="1" t="s">
         <v>81</v>
       </c>
@@ -3788,7 +3792,7 @@
       <c r="D115" t="s">
         <v>93</v>
       </c>
-      <c r="E115" s="6" t="s">
+      <c r="E115" s="4" t="s">
         <v>193</v>
       </c>
       <c r="F115" t="s">
@@ -3799,7 +3803,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="189.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="4"/>
+      <c r="A116" s="12"/>
       <c r="B116" s="1" t="s">
         <v>82</v>
       </c>
@@ -3809,7 +3813,7 @@
       <c r="D116" t="s">
         <v>94</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="E116" s="4" t="s">
         <v>194</v>
       </c>
       <c r="F116" t="s">
@@ -3817,10 +3821,10 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="4"/>
+      <c r="A117" s="12"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
-      <c r="E117" s="6" t="s">
+      <c r="E117" s="4" t="s">
         <v>220</v>
       </c>
       <c r="F117" t="s">
@@ -3831,40 +3835,40 @@
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
-      <c r="E118" s="6" t="s">
+      <c r="E118" s="4" t="s">
         <v>215</v>
       </c>
       <c r="F118" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="198" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>37</v>
       </c>
       <c r="D119" t="s">
         <v>95</v>
       </c>
-      <c r="E119" s="6" t="s">
+      <c r="E119" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G119" s="6" t="s">
+      <c r="G119" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="132" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D120" t="s">
         <v>97</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E120" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="4"/>
+      <c r="A121" s="12"/>
       <c r="C121" s="1" t="s">
         <v>98</v>
       </c>
@@ -3876,31 +3880,31 @@
       </c>
     </row>
     <row r="122" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A122" s="4"/>
+      <c r="A122" s="12"/>
       <c r="C122" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D122" t="s">
         <v>103</v>
       </c>
-      <c r="E122" s="6" t="s">
+      <c r="E122" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A123" s="4"/>
+      <c r="A123" s="12"/>
       <c r="C123" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D123" t="s">
         <v>104</v>
       </c>
-      <c r="E123" s="6" t="s">
+      <c r="E123" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="4"/>
+      <c r="A124" s="12"/>
       <c r="C124" s="1" t="s">
         <v>101</v>
       </c>
@@ -3912,33 +3916,33 @@
       </c>
     </row>
     <row r="125" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D125" t="s">
         <v>111</v>
       </c>
-      <c r="E125" s="6" t="s">
+      <c r="E125" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A126" s="4"/>
+      <c r="A126" s="12"/>
       <c r="D126" t="s">
         <v>113</v>
       </c>
-      <c r="E126" s="6" t="s">
+      <c r="E126" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="132" x14ac:dyDescent="0.3">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D127" t="s">
         <v>115</v>
       </c>
-      <c r="E127" s="6" t="s">
+      <c r="E127" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G127" t="s">
@@ -3946,11 +3950,11 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="4"/>
+      <c r="A128" s="12"/>
       <c r="D128" t="s">
         <v>23</v>
       </c>
-      <c r="E128" s="6" t="s">
+      <c r="E128" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G128" t="s">
@@ -3964,7 +3968,7 @@
       <c r="D129" t="s">
         <v>251</v>
       </c>
-      <c r="E129" s="6" t="s">
+      <c r="E129" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3975,36 +3979,36 @@
       <c r="D130" t="s">
         <v>250</v>
       </c>
-      <c r="E130" s="6" t="s">
+      <c r="E130" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="132" x14ac:dyDescent="0.3">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D131" t="s">
         <v>118</v>
       </c>
-      <c r="E131" s="6" t="s">
+      <c r="E131" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="4"/>
+      <c r="A132" s="12"/>
       <c r="D132" t="s">
         <v>120</v>
       </c>
-      <c r="E132" s="6" t="s">
+      <c r="E132" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A133" s="4"/>
+    <row r="133" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="A133" s="12"/>
       <c r="D133" t="s">
         <v>119</v>
       </c>
-      <c r="E133" s="6" t="s">
+      <c r="E133" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4015,34 +4019,34 @@
       <c r="D134" t="s">
         <v>123</v>
       </c>
-      <c r="E134" s="6" t="s">
+      <c r="E134" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="132" x14ac:dyDescent="0.3">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D135" t="s">
         <v>125</v>
       </c>
-      <c r="E135" s="6" t="s">
+      <c r="E135" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="4"/>
+      <c r="A136" s="12"/>
       <c r="D136" t="s">
         <v>126</v>
       </c>
-      <c r="E136" s="6"/>
+      <c r="E136" s="4"/>
     </row>
     <row r="137" spans="1:7" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="4"/>
+      <c r="A137" s="12"/>
       <c r="D137" t="s">
         <v>127</v>
       </c>
-      <c r="E137" s="6" t="s">
+      <c r="E137" s="4" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4051,7 +4055,7 @@
       <c r="D138" t="s">
         <v>129</v>
       </c>
-      <c r="E138" s="6" t="s">
+      <c r="E138" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4062,34 +4066,34 @@
       <c r="D139" t="s">
         <v>244</v>
       </c>
-      <c r="E139" s="6" t="s">
+      <c r="E139" s="4" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
-      <c r="E140" s="6"/>
+      <c r="E140" s="4"/>
       <c r="F140" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
-      <c r="E141" s="6" t="s">
+      <c r="E141" s="4" t="s">
         <v>248</v>
       </c>
       <c r="F141" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>19</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G142" s="8" t="s">
+      <c r="G142" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4099,7 +4103,7 @@
       </c>
     </row>
     <row r="144" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E144" s="6" t="s">
+      <c r="E144" s="4" t="s">
         <v>242</v>
       </c>
       <c r="F144" t="s">
@@ -4107,7 +4111,7 @@
       </c>
     </row>
     <row r="145" spans="5:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="E145" s="6" t="s">
+      <c r="E145" s="4" t="s">
         <v>241</v>
       </c>
       <c r="F145" t="s">
@@ -4123,7 +4127,7 @@
       </c>
     </row>
     <row r="147" spans="5:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E147" s="6" t="s">
+      <c r="E147" s="4" t="s">
         <v>240</v>
       </c>
       <c r="F147" t="s">
@@ -4162,15 +4166,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A126" sqref="A2:XFD126"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="36.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.125" customWidth="1"/>
@@ -4178,45 +4182,45 @@
     <col min="7" max="7" width="35.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="10"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
+      <c r="A2" s="12" t="s">
+        <v>261</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -4224,15 +4228,15 @@
       <c r="D3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>195</v>
       </c>
       <c r="F4" t="s">
@@ -4240,10 +4244,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>196</v>
       </c>
       <c r="F5" t="s">
@@ -4251,10 +4255,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F6" t="s">
@@ -4262,10 +4266,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>197</v>
       </c>
       <c r="F7" t="s">
@@ -4273,10 +4277,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>198</v>
       </c>
       <c r="F8" t="s">
@@ -4284,10 +4288,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>199</v>
       </c>
       <c r="F9" t="s">
@@ -4295,7 +4299,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="1" t="s">
         <v>49</v>
       </c>
@@ -4303,15 +4307,15 @@
       <c r="D10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>200</v>
       </c>
       <c r="F11" t="s">
@@ -4319,10 +4323,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>201</v>
       </c>
       <c r="F12" t="s">
@@ -4330,10 +4334,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>202</v>
       </c>
       <c r="F13" t="s">
@@ -4341,7 +4345,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
@@ -4349,15 +4353,15 @@
       <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F15" t="s">
@@ -4365,10 +4369,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F16" t="s">
@@ -4376,10 +4380,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>205</v>
       </c>
       <c r="F17" t="s">
@@ -4387,10 +4391,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>206</v>
       </c>
       <c r="F18" t="s">
@@ -4398,13 +4402,13 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="10" t="s">
         <v>145</v>
       </c>
       <c r="G19" t="s">
@@ -4412,18 +4416,18 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="10" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
@@ -4431,15 +4435,15 @@
       <c r="D21" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>209</v>
       </c>
       <c r="F22" t="s">
@@ -4447,10 +4451,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F23" t="s">
@@ -4458,10 +4462,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="4" t="s">
         <v>205</v>
       </c>
       <c r="F24" t="s">
@@ -4469,10 +4473,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="4" t="s">
         <v>210</v>
       </c>
       <c r="F25" t="s">
@@ -4480,10 +4484,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="4" t="s">
         <v>210</v>
       </c>
       <c r="F26" t="s">
@@ -4491,10 +4495,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="4" t="s">
         <v>211</v>
       </c>
       <c r="F27" t="s">
@@ -4502,10 +4506,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="4" t="s">
         <v>225</v>
       </c>
       <c r="F28" t="s">
@@ -4513,10 +4517,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="4" t="s">
         <v>212</v>
       </c>
       <c r="F29" t="s">
@@ -4524,7 +4528,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="1" t="s">
         <v>51</v>
       </c>
@@ -4532,15 +4536,15 @@
       <c r="D30" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="4" t="s">
         <v>213</v>
       </c>
       <c r="F31" t="s">
@@ -4548,7 +4552,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="1" t="s">
         <v>8</v>
       </c>
@@ -4556,15 +4560,15 @@
       <c r="D32" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="4" t="s">
         <v>155</v>
       </c>
       <c r="F33" t="s">
@@ -4572,7 +4576,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="249" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="1" t="s">
         <v>9</v>
       </c>
@@ -4580,7 +4584,7 @@
       <c r="D34" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="4" t="s">
         <v>156</v>
       </c>
       <c r="F34" t="s">
@@ -4588,25 +4592,25 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="E35" s="6"/>
+      <c r="E35" s="4"/>
       <c r="F35" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="E36" s="6"/>
+      <c r="E36" s="4"/>
       <c r="F36" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="234.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="1" t="s">
         <v>10</v>
       </c>
@@ -4614,7 +4618,7 @@
       <c r="D37" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="4" t="s">
         <v>159</v>
       </c>
       <c r="F37" t="s">
@@ -4622,7 +4626,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="231" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="1" t="s">
         <v>11</v>
       </c>
@@ -4630,7 +4634,7 @@
       <c r="D38" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="4" t="s">
         <v>160</v>
       </c>
       <c r="F38" t="s">
@@ -4638,19 +4642,19 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D39" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="E40" s="6" t="s">
+      <c r="A40" s="12"/>
+      <c r="E40" s="4" t="s">
         <v>214</v>
       </c>
       <c r="F40" t="s">
@@ -4658,8 +4662,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="E41" s="6" t="s">
+      <c r="A41" s="12"/>
+      <c r="E41" s="4" t="s">
         <v>215</v>
       </c>
       <c r="F41" t="s">
@@ -4667,7 +4671,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="1" t="s">
         <v>60</v>
       </c>
@@ -4682,10 +4686,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="4" t="s">
         <v>216</v>
       </c>
       <c r="F43" t="s">
@@ -4693,10 +4697,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F44" t="s">
@@ -4704,10 +4708,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="4" t="s">
         <v>205</v>
       </c>
       <c r="F45" t="s">
@@ -4715,7 +4719,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
@@ -4730,10 +4734,10 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F47" t="s">
@@ -4741,7 +4745,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="1" t="s">
         <v>49</v>
       </c>
@@ -4756,10 +4760,10 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="4" t="s">
         <v>217</v>
       </c>
       <c r="F49" t="s">
@@ -4767,7 +4771,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="E50" t="s">
@@ -4778,10 +4782,10 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="4" t="s">
         <v>218</v>
       </c>
       <c r="F51" t="s">
@@ -4789,7 +4793,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="1" t="s">
         <v>6</v>
       </c>
@@ -4804,10 +4808,10 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F53" t="s">
@@ -4815,10 +4819,10 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F54" t="s">
@@ -4826,10 +4830,10 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="4" t="s">
         <v>205</v>
       </c>
       <c r="F55" t="s">
@@ -4837,10 +4841,10 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="4" t="s">
         <v>208</v>
       </c>
       <c r="F56" t="s">
@@ -4848,7 +4852,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="1" t="s">
         <v>51</v>
       </c>
@@ -4863,15 +4867,15 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
+      <c r="A58" s="12"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="165" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="1" t="s">
         <v>8</v>
       </c>
@@ -4881,7 +4885,7 @@
       <c r="D59" t="s">
         <v>66</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="4" t="s">
         <v>166</v>
       </c>
       <c r="F59" t="s">
@@ -4892,7 +4896,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="1" t="s">
         <v>9</v>
       </c>
@@ -4902,7 +4906,7 @@
       <c r="D60" t="s">
         <v>67</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="4" t="s">
         <v>168</v>
       </c>
       <c r="F60" t="s">
@@ -4910,10 +4914,10 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
+      <c r="A61" s="12"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="4" t="s">
         <v>219</v>
       </c>
       <c r="F61" t="s">
@@ -4921,10 +4925,10 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="4" t="s">
         <v>215</v>
       </c>
       <c r="F62" t="s">
@@ -4932,7 +4936,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="206.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="4"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="1" t="s">
         <v>10</v>
       </c>
@@ -4942,7 +4946,7 @@
       <c r="D63" t="s">
         <v>68</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="4" t="s">
         <v>169</v>
       </c>
       <c r="F63" t="s">
@@ -4953,7 +4957,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="4"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="1" t="s">
         <v>11</v>
       </c>
@@ -4963,7 +4967,7 @@
       <c r="D64" t="s">
         <v>69</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="4" t="s">
         <v>170</v>
       </c>
       <c r="F64" t="s">
@@ -4971,10 +4975,10 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="4" t="s">
         <v>220</v>
       </c>
       <c r="F65" t="s">
@@ -4982,10 +4986,10 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="4"/>
+      <c r="A66" s="12"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="4" t="s">
         <v>215</v>
       </c>
       <c r="F66" t="s">
@@ -4993,7 +4997,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="4"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
         <v>71</v>
@@ -5006,13 +5010,13 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D68" t="s">
         <v>72</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F68" t="s">
@@ -5020,7 +5024,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="4"/>
+      <c r="A69" s="12"/>
       <c r="B69" s="1" t="s">
         <v>73</v>
       </c>
@@ -5030,12 +5034,12 @@
       <c r="D69" t="s">
         <v>83</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="4"/>
+      <c r="A70" s="12"/>
       <c r="B70" s="1" t="s">
         <v>74</v>
       </c>
@@ -5045,15 +5049,15 @@
       <c r="D70" t="s">
         <v>84</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="4"/>
+      <c r="A71" s="12"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="4" t="s">
         <v>174</v>
       </c>
       <c r="F71" t="s">
@@ -5061,10 +5065,10 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4"/>
+      <c r="A72" s="12"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F72" t="s">
@@ -5072,10 +5076,10 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
+      <c r="A73" s="12"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="4" t="s">
         <v>221</v>
       </c>
       <c r="F73" t="s">
@@ -5083,21 +5087,21 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A74" s="4"/>
+      <c r="A74" s="12"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="4" t="s">
         <v>201</v>
       </c>
       <c r="F74" t="s">
         <v>172</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G74" s="4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="4"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="1" t="s">
         <v>75</v>
       </c>
@@ -5112,10 +5116,10 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="4"/>
+      <c r="A76" s="12"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F76" t="s">
@@ -5123,10 +5127,10 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A77" s="4"/>
+      <c r="A77" s="12"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="4" t="s">
         <v>221</v>
       </c>
       <c r="F77" t="s">
@@ -5134,7 +5138,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="4"/>
+      <c r="A78" s="12"/>
       <c r="B78" s="1" t="s">
         <v>76</v>
       </c>
@@ -5149,10 +5153,10 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="135" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4"/>
+      <c r="A79" s="12"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="4" t="s">
         <v>181</v>
       </c>
       <c r="F79" t="s">
@@ -5160,10 +5164,10 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A80" s="4"/>
+      <c r="A80" s="12"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="E80" s="6" t="s">
+      <c r="E80" s="4" t="s">
         <v>210</v>
       </c>
       <c r="F80" t="s">
@@ -5174,10 +5178,10 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
+      <c r="A81" s="12"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="4" t="s">
         <v>210</v>
       </c>
       <c r="F81" t="s">
@@ -5185,10 +5189,10 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A82" s="4"/>
+      <c r="A82" s="12"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="4" t="s">
         <v>211</v>
       </c>
       <c r="F82" t="s">
@@ -5196,10 +5200,10 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="4"/>
+      <c r="A83" s="12"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="4" t="s">
         <v>223</v>
       </c>
       <c r="F83" t="s">
@@ -5207,10 +5211,10 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="4"/>
+      <c r="A84" s="12"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="4" t="s">
         <v>224</v>
       </c>
       <c r="F84" t="s">
@@ -5218,24 +5222,24 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A85" s="4"/>
+      <c r="A85" s="12"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="E85" s="6" t="s">
+      <c r="E85" s="4" t="s">
         <v>226</v>
       </c>
       <c r="F85" t="s">
         <v>178</v>
       </c>
-      <c r="G85" s="6" t="s">
+      <c r="G85" s="4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="4"/>
+      <c r="A86" s="12"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="E86" s="6" t="s">
+      <c r="E86" s="4" t="s">
         <v>228</v>
       </c>
       <c r="F86" t="s">
@@ -5243,7 +5247,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="4"/>
+      <c r="A87" s="12"/>
       <c r="B87" s="1" t="s">
         <v>77</v>
       </c>
@@ -5258,10 +5262,10 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
+      <c r="A88" s="12"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="E88" s="6" t="s">
+      <c r="E88" s="4" t="s">
         <v>229</v>
       </c>
       <c r="F88" t="s">
@@ -5269,7 +5273,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="4"/>
+      <c r="A89" s="12"/>
       <c r="B89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5284,10 +5288,10 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="4"/>
+      <c r="A90" s="12"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="4" t="s">
         <v>189</v>
       </c>
       <c r="F90" t="s">
@@ -5295,7 +5299,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="4"/>
+      <c r="A91" s="12"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="E91" t="s">
@@ -5306,10 +5310,10 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A92" s="4"/>
+      <c r="A92" s="12"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="4" t="s">
         <v>230</v>
       </c>
       <c r="F92" t="s">
@@ -5317,33 +5321,33 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A93" s="4"/>
+      <c r="A93" s="12"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="4" t="s">
         <v>231</v>
       </c>
       <c r="F93" t="s">
         <v>184</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="G93" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A94" s="4"/>
+      <c r="A94" s="12"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="E94" s="6" t="s">
+      <c r="E94" s="4" t="s">
         <v>231</v>
       </c>
       <c r="F94" t="s">
         <v>186</v>
       </c>
-      <c r="G94" s="6"/>
+      <c r="G94" s="4"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="4"/>
+      <c r="A95" s="12"/>
       <c r="B95" s="1" t="s">
         <v>79</v>
       </c>
@@ -5358,10 +5362,10 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="4"/>
+      <c r="A96" s="12"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="4" t="s">
         <v>232</v>
       </c>
       <c r="F96" t="s">
@@ -5369,7 +5373,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="4"/>
+      <c r="A97" s="12"/>
       <c r="B97" s="1" t="s">
         <v>80</v>
       </c>
@@ -5384,10 +5388,10 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A98" s="4"/>
+      <c r="A98" s="12"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="E98" s="6" t="s">
+      <c r="E98" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F98" t="s">
@@ -5395,10 +5399,10 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A99" s="4"/>
+      <c r="A99" s="12"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="E99" s="6" t="s">
+      <c r="E99" s="4" t="s">
         <v>205</v>
       </c>
       <c r="F99" t="s">
@@ -5406,7 +5410,7 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="4"/>
+      <c r="A100" s="12"/>
       <c r="B100" s="1" t="s">
         <v>8</v>
       </c>
@@ -5416,7 +5420,7 @@
       <c r="D100" t="s">
         <v>91</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E100" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F100" t="s">
@@ -5427,7 +5431,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4"/>
+      <c r="A101" s="12"/>
       <c r="B101" s="1" t="s">
         <v>9</v>
       </c>
@@ -5437,7 +5441,7 @@
       <c r="D101" t="s">
         <v>92</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="4" t="s">
         <v>192</v>
       </c>
       <c r="F101" t="s">
@@ -5445,10 +5449,10 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4"/>
+      <c r="A102" s="12"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="E102" s="6" t="s">
+      <c r="E102" s="4" t="s">
         <v>220</v>
       </c>
       <c r="F102" t="s">
@@ -5456,10 +5460,10 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="4"/>
+      <c r="A103" s="12"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="E103" s="6" t="s">
+      <c r="E103" s="4" t="s">
         <v>215</v>
       </c>
       <c r="F103" t="s">
@@ -5467,7 +5471,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="153" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="4"/>
+      <c r="A104" s="12"/>
       <c r="B104" s="1" t="s">
         <v>81</v>
       </c>
@@ -5477,7 +5481,7 @@
       <c r="D104" t="s">
         <v>93</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E104" s="4" t="s">
         <v>193</v>
       </c>
       <c r="F104" t="s">
@@ -5488,7 +5492,7 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="189.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="4"/>
+      <c r="A105" s="12"/>
       <c r="B105" s="1" t="s">
         <v>82</v>
       </c>
@@ -5498,7 +5502,7 @@
       <c r="D105" t="s">
         <v>94</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E105" s="4" t="s">
         <v>194</v>
       </c>
       <c r="F105" t="s">
@@ -5509,7 +5513,7 @@
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
-      <c r="E106" s="6" t="s">
+      <c r="E106" s="4" t="s">
         <v>220</v>
       </c>
       <c r="F106" t="s">
@@ -5520,7 +5524,7 @@
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
-      <c r="E107" s="6" t="s">
+      <c r="E107" s="4" t="s">
         <v>215</v>
       </c>
       <c r="F107" t="s">
@@ -5534,26 +5538,26 @@
       <c r="D108" t="s">
         <v>95</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="E108" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G108" s="6" t="s">
+      <c r="G108" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="132" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D109" t="s">
         <v>97</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="E109" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="4"/>
+      <c r="A110" s="12"/>
       <c r="C110" s="1" t="s">
         <v>98</v>
       </c>
@@ -5565,31 +5569,31 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A111" s="4"/>
+      <c r="A111" s="12"/>
       <c r="C111" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D111" t="s">
         <v>103</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E111" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A112" s="4"/>
+      <c r="A112" s="12"/>
       <c r="C112" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D112" t="s">
         <v>104</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E112" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="4"/>
+      <c r="A113" s="12"/>
       <c r="C113" s="1" t="s">
         <v>101</v>
       </c>
@@ -5601,33 +5605,33 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D114" t="s">
         <v>111</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="E114" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A115" s="4"/>
+      <c r="A115" s="12"/>
       <c r="D115" t="s">
         <v>113</v>
       </c>
-      <c r="E115" s="6" t="s">
+      <c r="E115" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="132" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D116" t="s">
         <v>115</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="E116" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G116" t="s">
@@ -5635,11 +5639,11 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="4"/>
+      <c r="A117" s="12"/>
       <c r="D117" t="s">
         <v>61</v>
       </c>
-      <c r="E117" s="6" t="s">
+      <c r="E117" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G117" t="s">
@@ -5647,31 +5651,31 @@
       </c>
     </row>
     <row r="118" spans="1:7" ht="132" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D118" t="s">
         <v>118</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="E118" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="4"/>
+      <c r="A119" s="12"/>
       <c r="D119" t="s">
         <v>120</v>
       </c>
-      <c r="E119" s="6" t="s">
+      <c r="E119" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A120" s="4"/>
+      <c r="A120" s="12"/>
       <c r="D120" t="s">
         <v>119</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E120" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5682,34 +5686,34 @@
       <c r="D121" t="s">
         <v>123</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="E121" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="132" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D122" t="s">
         <v>125</v>
       </c>
-      <c r="E122" s="6" t="s">
+      <c r="E122" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="4"/>
+      <c r="A123" s="12"/>
       <c r="D123" t="s">
         <v>126</v>
       </c>
-      <c r="E123" s="6"/>
+      <c r="E123" s="4"/>
     </row>
     <row r="124" spans="1:7" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="4"/>
+      <c r="A124" s="12"/>
       <c r="D124" t="s">
         <v>127</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="E124" s="4" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5718,7 +5722,7 @@
       <c r="D125" t="s">
         <v>129</v>
       </c>
-      <c r="E125" s="6" t="s">
+      <c r="E125" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5729,7 +5733,7 @@
       <c r="D126" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G126" s="8" t="s">
+      <c r="G126" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5796,7 +5800,7 @@
       <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
@@ -5847,23 +5851,23 @@
     <col min="6" max="6" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5874,7 +5878,7 @@
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5892,8 +5896,8 @@
         <v>12</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5907,7 +5911,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -5919,7 +5923,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -5931,7 +5935,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -5943,7 +5947,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
@@ -5955,7 +5959,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
@@ -5967,7 +5971,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
